--- a/input_data/admin_data/CHL/gpinter_CHL_2017.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2017.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>year</t>
   </si>
@@ -201,6 +201,63 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -387,10 +444,124 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -635,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -643,31 +814,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
@@ -675,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D2">
-        <v>1431930.8837916199</v>
+        <v>3870038.3497715201</v>
       </c>
       <c r="E2">
-        <v>0.66000000000000003</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F2">
-        <v>70429.504701080004</v>
+        <v>59998.0655232477</v>
       </c>
       <c r="G2">
-        <v>0.99978661917337797</v>
+        <v>0.99993872227996095</v>
       </c>
       <c r="H2">
-        <v>4210662.7564587202</v>
+        <v>7301511.70310375</v>
       </c>
       <c r="I2">
-        <v>113218.317978711</v>
+        <v>99210.656649348297</v>
       </c>
       <c r="J2">
-        <v>59.785494365320403</v>
+        <v>121.695785346189</v>
       </c>
     </row>
     <row r="3">
@@ -707,29 +878,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.67000000000000004</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F3">
-        <v>157220.37986080401</v>
+        <v>139138.51456424501</v>
       </c>
       <c r="G3">
-        <v>0.99899595029919996</v>
+        <v>0.99968236653440301</v>
       </c>
       <c r="H3">
-        <v>4334827.7394429697</v>
+        <v>7440017.4924586397</v>
       </c>
       <c r="I3">
-        <v>203730.11730423599</v>
+        <v>180520.35360303399</v>
       </c>
       <c r="J3">
-        <v>27.5716656026453</v>
+        <v>53.472020423384301</v>
       </c>
     </row>
     <row r="4">
@@ -737,29 +908,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68000000000000005</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F4">
-        <v>251535.02637411599</v>
+        <v>222640.89560911601</v>
       </c>
       <c r="G4">
-        <v>0.99757318527883299</v>
+        <v>0.999215910294729</v>
       </c>
       <c r="H4">
-        <v>4463924.5401347997</v>
+        <v>7582360.5736126704</v>
       </c>
       <c r="I4">
-        <v>302015.12270967802</v>
+        <v>266262.19947195897</v>
       </c>
       <c r="J4">
-        <v>17.746731357784999</v>
+        <v>34.056459182255601</v>
       </c>
     </row>
     <row r="5">
@@ -767,29 +938,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>353875.93628832902</v>
+        <v>310645.527003597</v>
       </c>
       <c r="G5">
-        <v>0.99546403932683003</v>
+        <v>0.99852790109324996</v>
       </c>
       <c r="H5">
-        <v>4598179.6826323904</v>
+        <v>7728682.5410954896</v>
       </c>
       <c r="I5">
-        <v>408586.444124753</v>
+        <v>356576.04213483701</v>
       </c>
       <c r="J5">
-        <v>12.993761968844099</v>
+        <v>24.8794264499614</v>
       </c>
     </row>
     <row r="6">
@@ -797,29 +968,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.69999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F6">
-        <v>464766.56325569999</v>
+        <v>403291.65889982902</v>
       </c>
       <c r="G6">
-        <v>0.99261064431489499</v>
+        <v>0.99760652510183101</v>
       </c>
       <c r="H6">
-        <v>4737832.7905826401</v>
+        <v>7879133.6941355001</v>
       </c>
       <c r="I6">
-        <v>523977.200318227</v>
+        <v>451600.26300075499</v>
       </c>
       <c r="J6">
-        <v>10.194005260176199</v>
+        <v>19.537060884496402</v>
       </c>
     </row>
     <row r="7">
@@ -827,29 +998,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.70999999999999996</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F7">
-        <v>584749.28043961304</v>
+        <v>500716.65992648603</v>
       </c>
       <c r="G7">
-        <v>0.98895140903860301</v>
+        <v>0.99643961092118105</v>
       </c>
       <c r="H7">
-        <v>4883138.15576417</v>
+        <v>8033873.9739508098</v>
       </c>
       <c r="I7">
-        <v>648738.03369307204</v>
+        <v>551470.91189977399</v>
       </c>
       <c r="J7">
-        <v>8.3508237104508094</v>
+        <v>16.0447506882042</v>
       </c>
     </row>
     <row r="8">
@@ -857,29 +1028,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.71999999999999997</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F8">
-        <v>714382.41736208799</v>
+        <v>603055.09885403502</v>
       </c>
       <c r="G8">
-        <v>0.98442089683975098</v>
+        <v>0.99501463560554304</v>
       </c>
       <c r="H8">
-        <v>5034366.7315524202</v>
+        <v>8193074.0391008304</v>
       </c>
       <c r="I8">
-        <v>783433.592054112</v>
+        <v>656320.73265267594</v>
       </c>
       <c r="J8">
-        <v>7.0471593493890996</v>
+        <v>13.585946051480001</v>
       </c>
     </row>
     <row r="9">
@@ -887,29 +1058,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.72999999999999998</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F9">
-        <v>854236.14400055294</v>
+        <v>710437.71263599605</v>
       </c>
       <c r="G9">
-        <v>0.97894972779854905</v>
+        <v>0.99331873320526998</v>
       </c>
       <c r="H9">
-        <v>5191808.6996819898</v>
+        <v>8356916.5022844896</v>
       </c>
       <c r="I9">
-        <v>928637.72079971095</v>
+        <v>766278.07074069302</v>
       </c>
       <c r="J9">
-        <v>6.0777207053868603</v>
+        <v>11.7630530497559</v>
       </c>
     </row>
     <row r="10">
@@ -917,29 +1088,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.73999999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F10">
-        <v>1004886.91908465</v>
+        <v>822990.25232300698</v>
       </c>
       <c r="G10">
-        <v>0.97246451450151705</v>
+        <v>0.99133870613193098</v>
       </c>
       <c r="H10">
-        <v>5355776.8142543901</v>
+        <v>8525597.3563187905</v>
       </c>
       <c r="I10">
-        <v>1084927.0525095901</v>
+        <v>881465.65477588703</v>
       </c>
       <c r="J10">
-        <v>5.3297308508433696</v>
+        <v>10.3592932385944</v>
       </c>
     </row>
     <row r="11">
@@ -947,29 +1118,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F11">
-        <v>1166910.1577514601</v>
+        <v>940832.19879605598</v>
       </c>
       <c r="G11">
-        <v>0.96488784257698301</v>
+        <v>0.98906103967204195</v>
       </c>
       <c r="H11">
-        <v>5526610.8047241801</v>
+        <v>8699327.6222629491</v>
       </c>
       <c r="I11">
-        <v>1252872.6132589399</v>
+        <v>1001999.24410976</v>
       </c>
       <c r="J11">
-        <v>4.7361065185802298</v>
+        <v>9.2464178345459693</v>
       </c>
     </row>
     <row r="12">
@@ -977,29 +1148,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.76000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F12">
-        <v>1340870.6998835099</v>
+        <v>1064075.3411896599</v>
       </c>
       <c r="G12">
-        <v>0.95613830984854997</v>
+        <v>0.98647191999531103</v>
       </c>
       <c r="H12">
-        <v>5704683.2293685703</v>
+        <v>8878335.2589641903</v>
       </c>
       <c r="I12">
-        <v>1433028.9844853601</v>
+        <v>1127986.1362208701</v>
       </c>
       <c r="J12">
-        <v>4.25446184323678</v>
+        <v>8.3437092424658594</v>
       </c>
     </row>
     <row r="13">
@@ -1007,29 +1178,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.77000000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F13">
-        <v>1527310.5731510599</v>
+        <v>1192822.2124683899</v>
       </c>
       <c r="G13">
-        <v>0.94613064117748402</v>
+        <v>0.98355725601972699</v>
       </c>
       <c r="H13">
-        <v>5890407.32697218</v>
+        <v>9062867.3809342608</v>
       </c>
       <c r="I13">
-        <v>1625920.4648440001</v>
+        <v>1259523.52946247</v>
       </c>
       <c r="J13">
-        <v>3.8567187515892298</v>
+        <v>7.59783586036668</v>
       </c>
     </row>
     <row r="14">
@@ -1037,29 +1208,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.78000000000000003</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F14">
-        <v>1726733.4432262699</v>
+        <v>1327164.3791483999</v>
       </c>
       <c r="G14">
-        <v>0.93477589994487098</v>
+        <v>0.98030270550723198</v>
       </c>
       <c r="H14">
-        <v>6084247.6388870999</v>
+        <v>9253192.8407262601</v>
       </c>
       <c r="I14">
-        <v>1832023.5680481801</v>
+        <v>1396696.74000616</v>
       </c>
       <c r="J14">
-        <v>3.5235592747419902</v>
+        <v>6.9721527989349497</v>
       </c>
     </row>
     <row r="15">
@@ -1067,29 +1238,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.79000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F15">
-        <v>1939585.0286300001</v>
+        <v>1467180.58598695</v>
       </c>
       <c r="G15">
-        <v>0.92198182176145205</v>
+        <v>0.97669370576672898</v>
       </c>
       <c r="H15">
-        <v>6286734.4994032402</v>
+        <v>9449605.2432442605</v>
       </c>
       <c r="I15">
-        <v>2051745.07246202</v>
+        <v>1539577.27641241</v>
       </c>
       <c r="J15">
-        <v>3.24127811186694</v>
+        <v>6.4406558630188204</v>
       </c>
     </row>
     <row r="16">
@@ -1097,29 +1268,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.80000000000000004</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F16">
-        <v>2166228.6334450198</v>
+        <v>1612934.7621112501</v>
       </c>
       <c r="G16">
-        <v>0.90765330146982204</v>
+        <v>0.97271550933230999</v>
       </c>
       <c r="H16">
-        <v>6498483.9707503002</v>
+        <v>9652426.4731630292</v>
       </c>
       <c r="I16">
-        <v>2285394.7136915498</v>
+        <v>1688220.78216222</v>
       </c>
       <c r="J16">
-        <v>2.9999067828844801</v>
+        <v>5.9843874035726596</v>
       </c>
     </row>
     <row r="17">
@@ -1127,29 +1298,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F17">
-        <v>2406914.8289991701</v>
+        <v>1764473.90323134</v>
       </c>
       <c r="G17">
-        <v>0.89169307085003102</v>
+        <v>0.968353224957888</v>
       </c>
       <c r="H17">
-        <v>6720225.5105954995</v>
+        <v>9862010.8334525209</v>
       </c>
       <c r="I17">
-        <v>2533151.5001106299</v>
+        <v>1842664.8662731999</v>
       </c>
       <c r="J17">
-        <v>2.7920495688623399</v>
+        <v>5.5892075339804599</v>
       </c>
     </row>
     <row r="18">
@@ -1157,29 +1328,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F18">
-        <v>2661744.2212920398</v>
+        <v>1921825.8562866701</v>
       </c>
       <c r="G18">
-        <v>0.87400261156331505</v>
+        <v>0.96359186421741405</v>
       </c>
       <c r="H18">
-        <v>6952840.7334002098</v>
+        <v>10078749.913646599</v>
       </c>
       <c r="I18">
-        <v>2795022.57185303</v>
+        <v>2002926.8562352399</v>
       </c>
       <c r="J18">
-        <v>2.61213706327697</v>
+        <v>5.2443616994104696</v>
       </c>
     </row>
     <row r="19">
@@ -1187,29 +1358,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.82999999999999996</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F19">
-        <v>2930622.2292967699</v>
+        <v>2084997.0495090301</v>
       </c>
       <c r="G19">
-        <v>0.85448335540723597</v>
+        <v>0.95841639391140698</v>
       </c>
       <c r="H19">
-        <v>7197418.2723147599</v>
+        <v>10303078.331908001</v>
       </c>
       <c r="I19">
-        <v>3070793.5975454198</v>
+        <v>2169001.5272740298</v>
       </c>
       <c r="J19">
-        <v>2.4559351936813201</v>
+        <v>4.9415313725907399</v>
       </c>
     </row>
     <row r="20">
@@ -1217,29 +1388,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.83999999999999997</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F20">
-        <v>3213204.9851214401</v>
+        <v>2253970.2344538001</v>
       </c>
       <c r="G20">
-        <v>0.83303823097906304</v>
+        <v>0.95281179434095997</v>
       </c>
       <c r="H20">
-        <v>7455332.31448784</v>
+        <v>10535480.526326099</v>
       </c>
       <c r="I20">
-        <v>3359970.0796389901</v>
+        <v>2340858.890294</v>
       </c>
       <c r="J20">
-        <v>2.3202168392646301</v>
+        <v>4.6741879574461898</v>
       </c>
     </row>
     <row r="21">
@@ -1247,29 +1418,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.84999999999999998</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F21">
-        <v>3508836.0907203001</v>
+        <v>2428702.3398972899</v>
       </c>
       <c r="G21">
-        <v>0.80957362023792101</v>
+        <v>0.94676312329760404</v>
       </c>
       <c r="H21">
-        <v>7728356.4634777596</v>
+        <v>10776498.8097388</v>
       </c>
       <c r="I21">
-        <v>3661709.9769155402</v>
+        <v>2518442.16056816</v>
       </c>
       <c r="J21">
-        <v>2.2025413167393801</v>
+        <v>4.4371426801501501</v>
       </c>
     </row>
     <row r="22">
@@ -1277,29 +1448,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.85999999999999999</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F22">
-        <v>3816475.5382272098</v>
+        <v>2609122.58473037</v>
       </c>
       <c r="G22">
-        <v>0.78400178560286005</v>
+        <v>0.94025558530197495</v>
       </c>
       <c r="H22">
-        <v>8018831.21251792</v>
+        <v>11026742.950622801</v>
       </c>
       <c r="I22">
-        <v>3974750.5230530398</v>
+        <v>2701666.08591522</v>
       </c>
       <c r="J22">
-        <v>2.10110902905007</v>
+        <v>4.2262264774969402</v>
       </c>
     </row>
     <row r="23">
@@ -1307,29 +1478,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.87</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F23">
-        <v>4134625.7358124498</v>
+        <v>2795131.0640427</v>
       </c>
       <c r="G23">
-        <v>0.75624380811914105</v>
+        <v>0.93327460516239902</v>
       </c>
       <c r="H23">
-        <v>8329914.34247676</v>
+        <v>11286901.6026449</v>
       </c>
       <c r="I23">
-        <v>4297337.7374281501</v>
+        <v>2890415.8934947099</v>
       </c>
       <c r="J23">
-        <v>2.01467191342772</v>
+        <v>4.0380580888826803</v>
       </c>
     </row>
     <row r="24">
@@ -1337,29 +1508,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F24">
-        <v>4461267.7920274604</v>
+        <v>2986598.1181950299</v>
       </c>
       <c r="G24">
-        <v>0.72623301789126904</v>
+        <v>0.92580590425491205</v>
       </c>
       <c r="H24">
-        <v>8665962.3928974699</v>
+        <v>11557755.9803594</v>
       </c>
       <c r="I24">
-        <v>4627179.8507936997</v>
+        <v>3084547.2294385699</v>
       </c>
       <c r="J24">
-        <v>1.9424887267211499</v>
+        <v>3.8698731878075399</v>
       </c>
     </row>
     <row r="25">
@@ -1367,29 +1538,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.89000000000000001</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F25">
-        <v>4793839.9212260498</v>
+        <v>3183364.9316614098</v>
       </c>
       <c r="G25">
-        <v>0.69391874977141799</v>
+        <v>0.91783557695926499</v>
       </c>
       <c r="H25">
-        <v>9033124.4421796296</v>
+        <v>11840196.272056799</v>
       </c>
       <c r="I25">
-        <v>4961475.3105842602</v>
+        <v>3283887.6306921798</v>
       </c>
       <c r="J25">
-        <v>1.88431916597444</v>
+        <v>3.71939646450691</v>
       </c>
     </row>
     <row r="26">
@@ -1397,29 +1568,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.90000000000000002</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F26">
-        <v>5129333.7293622997</v>
+        <v>3385246.0059279902</v>
       </c>
       <c r="G26">
-        <v>0.65926990347063297</v>
+        <v>0.90935016329175899</v>
       </c>
       <c r="H26">
-        <v>9440289.3553391695</v>
+        <v>12135241.397621101</v>
       </c>
       <c r="I26">
-        <v>5297136.8435221203</v>
+        <v>3488240.30788258</v>
       </c>
       <c r="J26">
-        <v>1.8404513828568601</v>
+        <v>3.5847443217924799</v>
       </c>
     </row>
     <row r="27">
@@ -1427,29 +1598,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.91000000000000003</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F27">
-        <v>5464691.9318361599</v>
+        <v>3592034.4375605802</v>
       </c>
       <c r="G27">
-        <v>0.62227693891150704</v>
+        <v>0.90033671176333097</v>
       </c>
       <c r="H27">
-        <v>9900639.6344299596</v>
+        <v>12444062.865111699</v>
       </c>
       <c r="I27">
-        <v>5631512.9033709802</v>
+        <v>3697391.36676447</v>
       </c>
       <c r="J27">
-        <v>1.8117470770403199</v>
+        <v>3.4643495438096901</v>
       </c>
     </row>
     <row r="28">
@@ -1457,29 +1628,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.92000000000000004</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F28">
-        <v>5797972.2966374997</v>
+        <v>3803511.3524927101</v>
       </c>
       <c r="G28">
-        <v>0.58294883329471003</v>
+        <v>0.89078282357774496</v>
       </c>
       <c r="H28">
-        <v>10434280.475812299</v>
+        <v>12768013.661346801</v>
       </c>
       <c r="I28">
-        <v>5964397.7334319297</v>
+        <v>3911122.1091810199</v>
       </c>
       <c r="J28">
-        <v>1.7996430375949899</v>
+        <v>3.3569016832246299</v>
       </c>
     </row>
     <row r="29">
@@ -1487,29 +1658,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93000000000000005</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F29">
-        <v>6131534.6137543898</v>
+        <v>4019461.4679769999</v>
       </c>
       <c r="G29">
-        <v>0.54129600073872297</v>
+        <v>0.880676665044686</v>
       </c>
       <c r="H29">
-        <v>11072835.1532952</v>
+        <v>13108663.336430101</v>
       </c>
       <c r="I29">
-        <v>6303577.2977053896</v>
+        <v>4129228.8165864702</v>
       </c>
       <c r="J29">
-        <v>1.80588316805004</v>
+        <v>3.2612984204144402</v>
       </c>
     </row>
     <row r="30">
@@ -1517,29 +1688,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F30">
-        <v>6480958.36366532</v>
+        <v>4239697.6792363999</v>
       </c>
       <c r="G30">
-        <v>0.49727448148065601</v>
+        <v>0.87000692887313003</v>
       </c>
       <c r="H30">
-        <v>11867711.462560199</v>
+        <v>13467840.717223801</v>
       </c>
       <c r="I30">
-        <v>6680977.3404103303</v>
+        <v>4351553.5628016703</v>
       </c>
       <c r="J30">
-        <v>1.8311661326348001</v>
+        <v>3.17660402607987</v>
       </c>
     </row>
     <row r="31">
@@ -1547,29 +1718,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.94999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F31">
-        <v>6901914.5958769899</v>
+        <v>4464098.9635751201</v>
       </c>
       <c r="G31">
-        <v>0.45061735985534501</v>
+        <v>0.85876271584599395</v>
       </c>
       <c r="H31">
-        <v>12905058.286990199</v>
+        <v>13847686.015324799</v>
       </c>
       <c r="I31">
-        <v>7204686.7823904501</v>
+        <v>4578031.3375172904</v>
       </c>
       <c r="J31">
-        <v>1.86977948042117</v>
+        <v>3.1020114312686999</v>
       </c>
     </row>
     <row r="32">
@@ -1577,29 +1748,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.95999999999999996</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F32">
-        <v>7581304.6716589797</v>
+        <v>4692668.0236163596</v>
       </c>
       <c r="G32">
-        <v>0.40030287286479299</v>
+        <v>0.84693329472982504</v>
       </c>
       <c r="H32">
-        <v>14330151.163140099</v>
+        <v>14250714.479577299</v>
       </c>
       <c r="I32">
-        <v>8206222.2909209803</v>
+        <v>4808761.4255346302</v>
       </c>
       <c r="J32">
-        <v>1.8901959205926899</v>
+        <v>3.0368043100127702</v>
       </c>
     </row>
     <row r="33">
@@ -1607,29 +1778,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.96999999999999997</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F33">
-        <v>8988013.1098560896</v>
+        <v>4925618.3785853898</v>
       </c>
       <c r="G33">
-        <v>0.34299408524236402</v>
+        <v>0.83450767774383705</v>
       </c>
       <c r="H33">
-        <v>16371460.787213201</v>
+        <v>14679894.1638519</v>
       </c>
       <c r="I33">
-        <v>10099857.4369574</v>
+        <v>5044115.1280537602</v>
       </c>
       <c r="J33">
-        <v>1.8214771815653601</v>
+        <v>2.98031496464976</v>
       </c>
     </row>
     <row r="34">
@@ -1637,29 +1808,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.97999999999999998</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F34">
-        <v>11366762.4125685</v>
+        <v>5163505.7549631996</v>
       </c>
       <c r="G34">
-        <v>0.272460950219716</v>
+        <v>0.82147391768212696</v>
       </c>
       <c r="H34">
-        <v>19507262.4623411</v>
+        <v>15138740.784604199</v>
       </c>
       <c r="I34">
-        <v>12842061.314170999</v>
+        <v>5284898.4384182803</v>
       </c>
       <c r="J34">
-        <v>1.71616699235056</v>
+        <v>2.9318725499729998</v>
       </c>
     </row>
     <row r="35">
@@ -1667,29 +1838,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.98999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F35">
-        <v>14427271.024220601</v>
+        <v>5407426.78406794</v>
       </c>
       <c r="G35">
-        <v>0.18277742247732701</v>
+        <v>0.807817984689292</v>
       </c>
       <c r="H35">
-        <v>26172463.610511199</v>
+        <v>15631432.901913499</v>
       </c>
       <c r="I35">
-        <v>14636734.4476339</v>
+        <v>5532598.7165101403</v>
       </c>
       <c r="J35">
-        <v>1.8140966206687701</v>
+        <v>2.8907340822383198</v>
       </c>
     </row>
     <row r="36">
@@ -1697,29 +1868,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99099999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F36">
-        <v>14863612.1389641</v>
+        <v>5659321.1394801196</v>
       </c>
       <c r="G36">
-        <v>0.17255574584941799</v>
+        <v>0.79352200564082398</v>
       </c>
       <c r="H36">
-        <v>27454211.295275301</v>
+        <v>16162950.490619</v>
       </c>
       <c r="I36">
-        <v>15141322.687536901</v>
+        <v>5789761.3299861103</v>
       </c>
       <c r="J36">
-        <v>1.8470753299129501</v>
+        <v>2.8559875102093502</v>
       </c>
     </row>
     <row r="37">
@@ -1727,29 +1898,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99199999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F37">
-        <v>15455167.226684</v>
+        <v>5922434.6913707703</v>
       </c>
       <c r="G37">
-        <v>0.16198168612424099</v>
+        <v>0.77856153029998398</v>
       </c>
       <c r="H37">
-        <v>28993322.371242601</v>
+        <v>16739238.7773208</v>
       </c>
       <c r="I37">
-        <v>15874932.6366733</v>
+        <v>6060570.1151555004</v>
       </c>
       <c r="J37">
-        <v>1.87596303203918</v>
+        <v>2.8264117123504202</v>
       </c>
     </row>
     <row r="38">
@@ -1757,29 +1928,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99299999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F38">
-        <v>16370522.8783585</v>
+        <v>6202036.8415615903</v>
       </c>
       <c r="G38">
-        <v>0.15089530422106001</v>
+        <v>0.76290129759062797</v>
       </c>
       <c r="H38">
-        <v>30867378.047609601</v>
+        <v>17367395.7574482</v>
       </c>
       <c r="I38">
-        <v>17086625.0329853</v>
+        <v>6351752.18358583</v>
       </c>
       <c r="J38">
-        <v>1.8855462514526999</v>
+        <v>2.8002729105161701</v>
       </c>
     </row>
     <row r="39">
@@ -1787,29 +1958,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99399999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F39">
-        <v>17942485.138879102</v>
+        <v>6506545.2008129302</v>
       </c>
       <c r="G39">
-        <v>0.13896272756781999</v>
+        <v>0.74648866389163404</v>
       </c>
       <c r="H39">
-        <v>33164170.2167137</v>
+        <v>18055873.480814599</v>
       </c>
       <c r="I39">
-        <v>19049842.015400901</v>
+        <v>6674006.9599245898</v>
       </c>
       <c r="J39">
-        <v>1.8483599100133099</v>
+        <v>2.7750323595014201</v>
       </c>
     </row>
     <row r="40">
@@ -1817,29 +1988,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.995</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F40">
-        <v>20251622.804148201</v>
+        <v>6849313.50125245</v>
       </c>
       <c r="G40">
-        <v>0.12565912316132899</v>
+        <v>0.72924333876373504</v>
       </c>
       <c r="H40">
-        <v>35987035.8569763</v>
+        <v>18814664.582207199</v>
       </c>
       <c r="I40">
-        <v>21533939.0340726</v>
+        <v>7044296.2986685</v>
       </c>
       <c r="J40">
-        <v>1.77699516749862</v>
+        <v>2.74694165754959</v>
       </c>
     </row>
     <row r="41">
@@ -1847,29 +2018,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.996</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F41">
-        <v>22785035.560966201</v>
+        <v>7251517.0557095902</v>
       </c>
       <c r="G41">
-        <v>0.110620730402418</v>
+        <v>0.71104120312059804</v>
       </c>
       <c r="H41">
-        <v>39600310.062702201</v>
+        <v>19655405.173888601</v>
       </c>
       <c r="I41">
-        <v>23795438.587546598</v>
+        <v>7489562.0893297903</v>
       </c>
       <c r="J41">
-        <v>1.73799641245866</v>
+        <v>2.7105231943724899</v>
       </c>
     </row>
     <row r="42">
@@ -1877,29 +2048,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.997</v>
+        <v>0.87</v>
       </c>
       <c r="F42">
-        <v>24610592.4120235</v>
+        <v>7746727.4650128996</v>
       </c>
       <c r="G42">
-        <v>0.094003001951350501</v>
+        <v>0.69168852128019198</v>
       </c>
       <c r="H42">
-        <v>44868600.554420702</v>
+        <v>20591239.257316101</v>
       </c>
       <c r="I42">
-        <v>25370437.903537001</v>
+        <v>8046387.8860053802</v>
       </c>
       <c r="J42">
-        <v>1.8231418327216</v>
+        <v>2.6580564955090802</v>
       </c>
     </row>
     <row r="43">
@@ -1907,29 +2078,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.998</v>
+        <v>0.88</v>
       </c>
       <c r="F43">
-        <v>26933158.135807499</v>
+        <v>8367839.4669084698</v>
       </c>
       <c r="G43">
-        <v>0.0762853605548897</v>
+        <v>0.67089702734969803</v>
       </c>
       <c r="H43">
-        <v>54617681.879862502</v>
+        <v>21636643.538258702</v>
       </c>
       <c r="I43">
-        <v>33284449.373224799</v>
+        <v>8732843.9150313996</v>
       </c>
       <c r="J43">
-        <v>2.0278974193987498</v>
+        <v>2.5856905625189399</v>
       </c>
     </row>
     <row r="44">
@@ -1937,29 +2108,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F44">
-        <v>37874647.534067497</v>
+        <v>9119419.1516461708</v>
       </c>
       <c r="G44">
-        <v>0.053040908081673402</v>
+        <v>0.648331762807689</v>
       </c>
       <c r="H44">
-        <v>75950914.386500403</v>
+        <v>22809716.231279399</v>
       </c>
       <c r="I44">
-        <v>38782475.685686901</v>
+        <v>9548048.7639710307</v>
       </c>
       <c r="J44">
-        <v>2.0053233318721699</v>
+        <v>2.5012246780171199</v>
       </c>
     </row>
     <row r="45">
@@ -1967,29 +2138,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99909999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F45">
-        <v>40241683.678883798</v>
+        <v>9996906.0858276002</v>
       </c>
       <c r="G45">
-        <v>0.050332503917431201</v>
+        <v>0.62366004666168595</v>
       </c>
       <c r="H45">
-        <v>80080740.908812493</v>
+        <v>24135882.9780102</v>
       </c>
       <c r="I45">
-        <v>42709227.745770998</v>
+        <v>10483804.9559086</v>
       </c>
       <c r="J45">
-        <v>1.98999479116808</v>
+        <v>2.4143352724126501</v>
       </c>
     </row>
     <row r="46">
@@ -1997,29 +2168,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99919999999999998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F46">
-        <v>45316491.885382198</v>
+        <v>10988253.6456543</v>
       </c>
       <c r="G46">
-        <v>0.0473498719881109</v>
+        <v>0.596570379820199</v>
       </c>
       <c r="H46">
-        <v>84752180.054191902</v>
+        <v>25652780.536021501</v>
       </c>
       <c r="I46">
-        <v>47426496.298909098</v>
+        <v>11524278.421628401</v>
       </c>
       <c r="J46">
-        <v>1.87022817804505</v>
+        <v>2.3345639228274302</v>
       </c>
     </row>
     <row r="47">
@@ -2027,29 +2198,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99929999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F47">
-        <v>49034305.393691503</v>
+        <v>12074292.1538486</v>
       </c>
       <c r="G47">
-        <v>0.044037805963434998</v>
+        <v>0.56679217769383305</v>
       </c>
       <c r="H47">
-        <v>90084420.5906602</v>
+        <v>27418843.300320599</v>
       </c>
       <c r="I47">
-        <v>50147577.561018899</v>
+        <v>12649699.0352691</v>
       </c>
       <c r="J47">
-        <v>1.83717134090881</v>
+        <v>2.2708447792180499</v>
       </c>
     </row>
     <row r="48">
@@ -2057,29 +2228,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99939999999999996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F48">
-        <v>51888166.429697096</v>
+        <v>13237521.0647064</v>
       </c>
       <c r="G48">
-        <v>0.0405357111257129</v>
+        <v>0.53410594078350404</v>
       </c>
       <c r="H48">
-        <v>96740561.095598996</v>
+        <v>29528721.0524709</v>
       </c>
       <c r="I48">
-        <v>55861041.655591801</v>
+        <v>13856960.240945799</v>
       </c>
       <c r="J48">
-        <v>1.86440508023486</v>
+        <v>2.2306835931086599</v>
       </c>
     </row>
     <row r="49">
@@ -2087,29 +2258,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99950000000000006</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F49">
-        <v>60529824.466936901</v>
+        <v>14500565.6431865</v>
       </c>
       <c r="G49">
-        <v>0.036634612107045897</v>
+        <v>0.49830019678677101</v>
       </c>
       <c r="H49">
-        <v>104916464.98359901</v>
+        <v>32140681.187725101</v>
       </c>
       <c r="I49">
-        <v>65789440.886385597</v>
+        <v>15240376.848344499</v>
       </c>
       <c r="J49">
-        <v>1.7333019863771</v>
+        <v>2.2165122367365901</v>
       </c>
     </row>
     <row r="50">
@@ -2117,29 +2288,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99960000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F50">
-        <v>71402465.870835096</v>
+        <v>16072336.6265461</v>
       </c>
       <c r="G50">
-        <v>0.032040155654498803</v>
+        <v>0.45891976829762099</v>
       </c>
       <c r="H50">
-        <v>114698221.007899</v>
+        <v>35520742.055601202</v>
       </c>
       <c r="I50">
-        <v>77961269.546121001</v>
+        <v>17284664.788593501</v>
       </c>
       <c r="J50">
-        <v>1.6063621838408899</v>
+        <v>2.2100546349267498</v>
       </c>
     </row>
     <row r="51">
@@ -2147,29 +2318,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99970000000000003</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F51">
-        <v>85098174.593332097</v>
+        <v>18795950.287182499</v>
       </c>
       <c r="G51">
-        <v>0.026595670139963098</v>
+        <v>0.41425699437546198</v>
       </c>
       <c r="H51">
-        <v>126943871.49517301</v>
+        <v>40079761.372353002</v>
       </c>
       <c r="I51">
-        <v>93811680.684259698</v>
+        <v>20932807.3953803</v>
       </c>
       <c r="J51">
-        <v>1.4917343656525299</v>
+        <v>2.1323615332013599</v>
       </c>
     </row>
     <row r="52">
@@ -2177,29 +2348,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99980000000000002</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F52">
-        <v>103625930.026008</v>
+        <v>23358838.479423702</v>
       </c>
       <c r="G52">
-        <v>0.0200442589129179</v>
+        <v>0.36016758878438798</v>
       </c>
       <c r="H52">
-        <v>143509966.900628</v>
+        <v>46462079.364677303</v>
       </c>
       <c r="I52">
-        <v>116968595.074003</v>
+        <v>26260506.652366001</v>
       </c>
       <c r="J52">
-        <v>1.38488471818406</v>
+        <v>1.9890577780913501</v>
       </c>
     </row>
     <row r="53">
@@ -2207,29 +2378,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990000000000001</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F53">
-        <v>133310175.71068899</v>
+        <v>29436322.6731258</v>
       </c>
       <c r="G53">
-        <v>0.0118756666716312</v>
+        <v>0.29231165486601601</v>
       </c>
       <c r="H53">
-        <v>170051338.727254</v>
+        <v>56562865.720832899</v>
       </c>
       <c r="I53">
-        <v>135428159.329795</v>
+        <v>35633801.126294702</v>
       </c>
       <c r="J53">
-        <v>1.2756065905749101</v>
+        <v>1.92153301038763</v>
       </c>
     </row>
     <row r="54">
@@ -2237,29 +2408,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F54">
-        <v>137612737.22077101</v>
+        <v>42570191.206859902</v>
       </c>
       <c r="G54">
-        <v>0.0109298936537983</v>
+        <v>0.200235561799914</v>
       </c>
       <c r="H54">
-        <v>173898358.66028601</v>
+        <v>77491930.3153712</v>
       </c>
       <c r="I54">
-        <v>139945040.380025</v>
+        <v>44309383.1793193</v>
       </c>
       <c r="J54">
-        <v>1.26367923618366</v>
+        <v>1.82033315140205</v>
       </c>
     </row>
     <row r="55">
@@ -2267,29 +2438,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992000000000003</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F55">
-        <v>142359471.151007</v>
+        <v>46352544.512787201</v>
       </c>
       <c r="G55">
-        <v>0.0099525766480442392</v>
+        <v>0.18878622223925201</v>
       </c>
       <c r="H55">
-        <v>178142523.44529399</v>
+        <v>81178879.997154698</v>
       </c>
       <c r="I55">
-        <v>144958442.63274899</v>
+        <v>48616481.662893198</v>
       </c>
       <c r="J55">
-        <v>1.2513570189954599</v>
+        <v>1.7513360021640201</v>
       </c>
     </row>
     <row r="56">
@@ -2297,29 +2468,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F56">
-        <v>147661406.204923</v>
+        <v>50609280.911686197</v>
       </c>
       <c r="G56">
-        <v>0.0089402481601646103</v>
+        <v>0.17622394836262101</v>
       </c>
       <c r="H56">
-        <v>182883106.41854599</v>
+        <v>85249179.788937405</v>
       </c>
       <c r="I56">
-        <v>150601932.69927499</v>
+        <v>51373422.8161304</v>
       </c>
       <c r="J56">
-        <v>1.23853016924911</v>
+        <v>1.6844574404781201</v>
       </c>
     </row>
     <row r="57">
@@ -2327,29 +2498,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99994000000000005</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F57">
-        <v>153678693.09026</v>
+        <v>51721472.3509418</v>
       </c>
       <c r="G57">
-        <v>0.0078885079232348995</v>
+        <v>0.16294929365043601</v>
       </c>
       <c r="H57">
-        <v>188263302.03839299</v>
+        <v>90088573.642195597</v>
       </c>
       <c r="I57">
-        <v>157073599.06461</v>
+        <v>51834057.361893304</v>
       </c>
       <c r="J57">
-        <v>1.2250449184118199</v>
+        <v>1.74180218673831</v>
       </c>
     </row>
     <row r="58">
@@ -2357,29 +2528,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F58">
-        <v>160655294.088579</v>
+        <v>51950988.299486399</v>
       </c>
       <c r="G58">
-        <v>0.0067915723040398697</v>
+        <v>0.14955561310332899</v>
       </c>
       <c r="H58">
-        <v>194501242.63319099</v>
+        <v>96464326.355579302</v>
       </c>
       <c r="I58">
-        <v>164686854.72068501</v>
+        <v>56062020.780291103</v>
       </c>
       <c r="J58">
-        <v>1.21067434308109</v>
+        <v>1.8568333252773399</v>
       </c>
     </row>
     <row r="59">
@@ -2387,29 +2558,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="F59">
-        <v>168991502.38171101</v>
+        <v>62507827.4392206</v>
       </c>
       <c r="G59">
-        <v>0.00564146892555944</v>
+        <v>0.135069446374878</v>
       </c>
       <c r="H59">
-        <v>201954839.61127999</v>
+        <v>104544787.47063699</v>
       </c>
       <c r="I59">
-        <v>173985064.838002</v>
+        <v>67362579.796400204</v>
       </c>
       <c r="J59">
-        <v>1.19505914063722</v>
+        <v>1.6725071363629</v>
       </c>
     </row>
     <row r="60">
@@ -2417,29 +2588,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="F60">
-        <v>179418766.29673201</v>
+        <v>71276944.844252795</v>
       </c>
       <c r="G60">
-        <v>0.0044264307780720403</v>
+        <v>0.11766326749285801</v>
       </c>
       <c r="H60">
-        <v>211278097.86896801</v>
+        <v>113840339.38919599</v>
       </c>
       <c r="I60">
-        <v>186052817.113471</v>
+        <v>75728892.929446593</v>
       </c>
       <c r="J60">
-        <v>1.1775696725031799</v>
+        <v>1.5971551479647299</v>
       </c>
     </row>
     <row r="61">
@@ -2447,29 +2618,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="F61">
-        <v>193524921.70396999</v>
+        <v>80749714.421700194</v>
       </c>
       <c r="G61">
-        <v>0.0031271165498458699</v>
+        <v>0.098095272014488102</v>
       </c>
       <c r="H61">
-        <v>223890738.24678501</v>
+        <v>126544154.875779</v>
       </c>
       <c r="I61">
-        <v>203683394.887375</v>
+        <v>87425681.776032299</v>
       </c>
       <c r="J61">
-        <v>1.15690907545884</v>
+        <v>1.5671158193195101</v>
       </c>
     </row>
     <row r="62">
@@ -2477,29 +2648,599 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="D62"/>
       <c r="E62">
+        <v>0.998</v>
+      </c>
+      <c r="F62">
+        <v>95334320.215401605</v>
+      </c>
+      <c r="G62">
+        <v>0.075504880428008403</v>
+      </c>
+      <c r="H62">
+        <v>146103391.42565301</v>
+      </c>
+      <c r="I62">
+        <v>107620436.67519499</v>
+      </c>
+      <c r="J62">
+        <v>1.5325371922256501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.999</v>
+      </c>
+      <c r="F63">
+        <v>124029649.063291</v>
+      </c>
+      <c r="G63">
+        <v>0.0476962576319193</v>
+      </c>
+      <c r="H63">
+        <v>184586346.17611</v>
+      </c>
+      <c r="I63">
+        <v>126387486.642462</v>
+      </c>
+      <c r="J63">
+        <v>1.48824371890239</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F64">
+        <v>128851510.88560601</v>
+      </c>
+      <c r="G64">
+        <v>0.044430463466083502</v>
+      </c>
+      <c r="H64">
+        <v>191052886.124293</v>
+      </c>
+      <c r="I64">
+        <v>131556041.12249599</v>
+      </c>
+      <c r="J64">
+        <v>1.48273687138918</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F65">
+        <v>134397087.959304</v>
+      </c>
+      <c r="G65">
+        <v>0.041031116244362897</v>
+      </c>
+      <c r="H65">
+        <v>198489991.74951601</v>
+      </c>
+      <c r="I65">
+        <v>137552162.87673</v>
+      </c>
+      <c r="J65">
+        <v>1.4768920574352</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F66">
+        <v>140888388.737308</v>
+      </c>
+      <c r="G66">
+        <v>0.037476832011369803</v>
+      </c>
+      <c r="H66">
+        <v>207195395.874199</v>
+      </c>
+      <c r="I66">
+        <v>144649697.43142799</v>
+      </c>
+      <c r="J66">
+        <v>1.47063500215425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F67">
+        <v>148661394.54587001</v>
+      </c>
+      <c r="G67">
+        <v>0.0337391507700468</v>
+      </c>
+      <c r="H67">
+        <v>217619678.94799101</v>
+      </c>
+      <c r="I67">
+        <v>153276468.067072</v>
+      </c>
+      <c r="J67">
+        <v>1.4638614121223199</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F68">
+        <v>158257069.344385</v>
+      </c>
+      <c r="G68">
+        <v>0.0297785577677552</v>
+      </c>
+      <c r="H68">
+        <v>230488321.12417299</v>
+      </c>
+      <c r="I68">
+        <v>164151960.52651501</v>
+      </c>
+      <c r="J68">
+        <v>1.4564172209116599</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F69">
+        <v>170623217.51482201</v>
+      </c>
+      <c r="G69">
+        <v>0.025536947073220701</v>
+      </c>
+      <c r="H69">
+        <v>247072411.27358299</v>
+      </c>
+      <c r="I69">
+        <v>178619474.51941401</v>
+      </c>
+      <c r="J69">
+        <v>1.4480585636132399</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F70">
+        <v>187637499.49588901</v>
+      </c>
+      <c r="G70">
+        <v>0.020921502512312399</v>
+      </c>
+      <c r="H70">
+        <v>269890056.85833102</v>
+      </c>
+      <c r="I70">
+        <v>199628373.98452201</v>
+      </c>
+      <c r="J70">
+        <v>1.43835884395935</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F71">
+        <v>213833280.31033099</v>
+      </c>
+      <c r="G71">
+        <v>0.0157631977116304</v>
+      </c>
+      <c r="H71">
+        <v>305020898.29523599</v>
+      </c>
+      <c r="I71">
+        <v>235900686.066365</v>
+      </c>
+      <c r="J71">
+        <v>1.4264425904731299</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F72">
+        <v>265373689.117419</v>
+      </c>
+      <c r="G72">
+        <v>0.0096676331526831302</v>
+      </c>
+      <c r="H72">
+        <v>374141110.524104</v>
+      </c>
+      <c r="I72">
+        <v>269608661.06617099</v>
+      </c>
+      <c r="J72">
+        <v>1.40986512931415</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F73">
+        <v>274034357.578466</v>
+      </c>
+      <c r="G73">
+        <v>0.0089709768493138296</v>
+      </c>
+      <c r="H73">
+        <v>385755827.13048601</v>
+      </c>
+      <c r="I73">
+        <v>278892033.01330203</v>
+      </c>
+      <c r="J73">
+        <v>1.40769146810371</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F74">
+        <v>283994909.37988198</v>
+      </c>
+      <c r="G74">
+        <v>0.0082503327424446396</v>
+      </c>
+      <c r="H74">
+        <v>399113801.39505601</v>
+      </c>
+      <c r="I74">
+        <v>289661819.556283</v>
+      </c>
+      <c r="J74">
+        <v>1.40535547720395</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F75">
+        <v>295654099.54158199</v>
+      </c>
+      <c r="G75">
+        <v>0.0075018600055394803</v>
+      </c>
+      <c r="H75">
+        <v>414749798.80070001</v>
+      </c>
+      <c r="I75">
+        <v>302409881.598315</v>
+      </c>
+      <c r="J75">
+        <v>1.40282106503437</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F76">
+        <v>309615392.65499598</v>
+      </c>
+      <c r="G76">
+        <v>0.0067204468662747704</v>
+      </c>
+      <c r="H76">
+        <v>433473118.33432001</v>
+      </c>
+      <c r="I76">
+        <v>317904643.39750701</v>
+      </c>
+      <c r="J76">
+        <v>1.4000373644773501</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F77">
+        <v>326850427.82465702</v>
+      </c>
+      <c r="G77">
+        <v>0.0058989959795714003</v>
+      </c>
+      <c r="H77">
+        <v>456586813.32183802</v>
+      </c>
+      <c r="I77">
+        <v>337438391.56643498</v>
+      </c>
+      <c r="J77">
+        <v>1.39692891442926</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F78">
+        <v>349061580.568326</v>
+      </c>
+      <c r="G78">
+        <v>0.0050270707915825398</v>
+      </c>
+      <c r="H78">
+        <v>486373918.76053202</v>
+      </c>
+      <c r="I78">
+        <v>363423860.82391101</v>
+      </c>
+      <c r="J78">
+        <v>1.39337568451</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F79">
+        <v>379621364.47966599</v>
+      </c>
+      <c r="G79">
+        <v>0.0040880003535758097</v>
+      </c>
+      <c r="H79">
+        <v>527357271.40576202</v>
+      </c>
+      <c r="I79">
+        <v>401158478.63427103</v>
+      </c>
+      <c r="J79">
+        <v>1.38916647151456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F80">
+        <v>426672271.59279299</v>
+      </c>
+      <c r="G80">
+        <v>0.0030514254094009602</v>
+      </c>
+      <c r="H80">
+        <v>590456667.79185998</v>
+      </c>
+      <c r="I80">
+        <v>466308099.430785</v>
+      </c>
+      <c r="J80">
+        <v>1.3838646359362701</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F62">
-        <v>216125100.35438001</v>
-      </c>
-      <c r="G62">
-        <v>0.0017046778190942999</v>
-      </c>
-      <c r="H62">
-        <v>244098081.605968</v>
-      </c>
-      <c r="I62">
-        <v>244098081.60597199</v>
-      </c>
-      <c r="J62">
-        <v>1.12942958131989</v>
+      <c r="F81">
+        <v>519245308.62119299</v>
+      </c>
+      <c r="G81">
+        <v>0.0018465068600636301</v>
+      </c>
+      <c r="H81">
+        <v>714605236.15156496</v>
+      </c>
+      <c r="I81">
+        <v>714605236.15155196</v>
+      </c>
+      <c r="J81">
+        <v>1.37623821397468</v>
       </c>
     </row>
   </sheetData>
